--- a/data/pca/factorExposure/factorExposure_2019-02-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.115404514621035</v>
+        <v>-0.0706192943619177</v>
       </c>
       <c r="C2">
-        <v>-0.02161577965552906</v>
+        <v>-0.03648318665119161</v>
       </c>
       <c r="D2">
-        <v>-0.04651635607982387</v>
+        <v>-0.02055329883286401</v>
       </c>
       <c r="E2">
-        <v>-0.1348506223734821</v>
+        <v>0.0423675920201189</v>
       </c>
       <c r="F2">
-        <v>0.0009631283787870374</v>
+        <v>-0.1417251015125269</v>
       </c>
       <c r="G2">
-        <v>-0.1042558073387739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.09726023184832211</v>
+      </c>
+      <c r="H2">
+        <v>-0.06071929887487831</v>
+      </c>
+      <c r="I2">
+        <v>-0.05460657262282972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2058088493474574</v>
+        <v>-0.1600908751356654</v>
       </c>
       <c r="C3">
-        <v>-0.1597353960525453</v>
+        <v>-0.1061931001104734</v>
       </c>
       <c r="D3">
-        <v>0.04048549770615616</v>
+        <v>0.004289523810117271</v>
       </c>
       <c r="E3">
-        <v>-0.3392059164381703</v>
+        <v>-0.004706436741348703</v>
       </c>
       <c r="F3">
-        <v>0.08732123403621614</v>
+        <v>-0.3743055702064139</v>
       </c>
       <c r="G3">
-        <v>-0.02048080175241532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.06898654385988291</v>
+      </c>
+      <c r="H3">
+        <v>-0.2704374078198407</v>
+      </c>
+      <c r="I3">
+        <v>-0.2808982766881654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09687508977766909</v>
+        <v>-0.07215675189272615</v>
       </c>
       <c r="C4">
-        <v>-0.04994292585094481</v>
+        <v>-0.04854800223796411</v>
       </c>
       <c r="D4">
-        <v>-0.02344303796097004</v>
+        <v>0.01481102294288499</v>
       </c>
       <c r="E4">
-        <v>-0.07239135975757452</v>
+        <v>0.04017028823102384</v>
       </c>
       <c r="F4">
-        <v>0.02396393916289866</v>
+        <v>-0.08146228794537551</v>
       </c>
       <c r="G4">
-        <v>-0.03236071378556473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04158059679131738</v>
+      </c>
+      <c r="H4">
+        <v>-0.02389988596337496</v>
+      </c>
+      <c r="I4">
+        <v>-0.0420160462026616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01911816659604044</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01178316354560005</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005572093859205092</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005195280898857249</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.004611245784813356</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0206048124162702</v>
+      </c>
+      <c r="H6">
+        <v>0.002579544055444438</v>
+      </c>
+      <c r="I6">
+        <v>0.01352778692308991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03739017208311934</v>
+        <v>-0.03305495307209785</v>
       </c>
       <c r="C7">
-        <v>-0.01575906498952835</v>
+        <v>-0.0172254269842016</v>
       </c>
       <c r="D7">
-        <v>-0.02949232002310485</v>
+        <v>0.03675089496563205</v>
       </c>
       <c r="E7">
-        <v>-0.07657736427797501</v>
+        <v>0.02766247051447565</v>
       </c>
       <c r="F7">
-        <v>0.02355021279820266</v>
+        <v>-0.05431129761342504</v>
       </c>
       <c r="G7">
-        <v>0.06468190474313737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01393620726363014</v>
+      </c>
+      <c r="H7">
+        <v>-0.04724116687229329</v>
+      </c>
+      <c r="I7">
+        <v>-0.0130394823062229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04524528819151773</v>
+        <v>-0.02964071891145887</v>
       </c>
       <c r="C8">
-        <v>-0.05505894860773686</v>
+        <v>-0.04964678331434828</v>
       </c>
       <c r="D8">
-        <v>-0.00150018014091232</v>
+        <v>0.01281050640740874</v>
       </c>
       <c r="E8">
-        <v>-0.0709863326467428</v>
+        <v>0.02019844429420324</v>
       </c>
       <c r="F8">
-        <v>0.01815972441942333</v>
+        <v>-0.0722516730745799</v>
       </c>
       <c r="G8">
-        <v>-0.003984041063102951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01839751076404924</v>
+      </c>
+      <c r="H8">
+        <v>-0.04026284991500753</v>
+      </c>
+      <c r="I8">
+        <v>-0.04838160254354442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08332180484429512</v>
+        <v>-0.06136817149806798</v>
       </c>
       <c r="C9">
-        <v>-0.04413173786014842</v>
+        <v>-0.04273874388779864</v>
       </c>
       <c r="D9">
-        <v>-0.0336515788923056</v>
+        <v>0.0184984388791367</v>
       </c>
       <c r="E9">
-        <v>-0.05825222249152181</v>
+        <v>0.03511194165395064</v>
       </c>
       <c r="F9">
-        <v>0.03810409403278908</v>
+        <v>-0.08113828260448934</v>
       </c>
       <c r="G9">
-        <v>-0.03353073033547617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04059479261222817</v>
+      </c>
+      <c r="H9">
+        <v>-0.0211516910017613</v>
+      </c>
+      <c r="I9">
+        <v>-0.02081573678105157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02031614483761131</v>
+        <v>-0.03686238712994689</v>
       </c>
       <c r="C10">
-        <v>0.165463706136157</v>
+        <v>0.1595305170047226</v>
       </c>
       <c r="D10">
-        <v>0.02736603410927411</v>
+        <v>-0.01095213820409755</v>
       </c>
       <c r="E10">
-        <v>-0.07070379232612374</v>
+        <v>-0.03843236846211586</v>
       </c>
       <c r="F10">
-        <v>-0.01398192040834023</v>
+        <v>-0.06874430471715325</v>
       </c>
       <c r="G10">
-        <v>-0.01663713030808981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03062767886927649</v>
+      </c>
+      <c r="H10">
+        <v>0.0002546556377729792</v>
+      </c>
+      <c r="I10">
+        <v>-0.1036236459712105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05851694933580578</v>
+        <v>-0.0483160721658867</v>
       </c>
       <c r="C11">
-        <v>-0.01600586413512256</v>
+        <v>-0.03236658267007286</v>
       </c>
       <c r="D11">
-        <v>0.006362857373570892</v>
+        <v>-0.005774978286920786</v>
       </c>
       <c r="E11">
-        <v>-0.04538649625615563</v>
+        <v>0.009708516059388899</v>
       </c>
       <c r="F11">
-        <v>-0.01040461271257119</v>
+        <v>-0.03992222430399155</v>
       </c>
       <c r="G11">
-        <v>0.002290791323337042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.005713397738072424</v>
+      </c>
+      <c r="H11">
+        <v>0.0004056518048923668</v>
+      </c>
+      <c r="I11">
+        <v>0.002540248065867196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04580084432593778</v>
+        <v>-0.04504219072597706</v>
       </c>
       <c r="C12">
-        <v>-0.01999822155320304</v>
+        <v>-0.02895352236648732</v>
       </c>
       <c r="D12">
-        <v>0.003417604275287631</v>
+        <v>0.005349214959123938</v>
       </c>
       <c r="E12">
-        <v>-0.02763713361129412</v>
+        <v>0.01123018411992262</v>
       </c>
       <c r="F12">
-        <v>0.008394178551268641</v>
+        <v>-0.01455644965922382</v>
       </c>
       <c r="G12">
-        <v>0.00691809213963296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.00154385945349666</v>
+      </c>
+      <c r="H12">
+        <v>-0.003333273887882071</v>
+      </c>
+      <c r="I12">
+        <v>0.002078830365339998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06229294593334186</v>
+        <v>-0.0416160058362252</v>
       </c>
       <c r="C13">
-        <v>-0.02943700429140959</v>
+        <v>-0.02641391432373155</v>
       </c>
       <c r="D13">
-        <v>0.005740995602348662</v>
+        <v>-0.01506678592975594</v>
       </c>
       <c r="E13">
-        <v>-0.1120367139103568</v>
+        <v>0.009257189591830981</v>
       </c>
       <c r="F13">
-        <v>0.0004817484014504475</v>
+        <v>-0.1054839832668088</v>
       </c>
       <c r="G13">
-        <v>-0.01198925023433836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02197816083715442</v>
+      </c>
+      <c r="H13">
+        <v>-0.03972794178483348</v>
+      </c>
+      <c r="I13">
+        <v>-0.02746011091585132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03427682377274537</v>
+        <v>-0.02719859147752925</v>
       </c>
       <c r="C14">
-        <v>-0.02501147947668111</v>
+        <v>-0.02143400035445109</v>
       </c>
       <c r="D14">
-        <v>-0.02646050254952881</v>
+        <v>0.005899957384515525</v>
       </c>
       <c r="E14">
-        <v>-0.03361492233424033</v>
+        <v>0.02700542704710601</v>
       </c>
       <c r="F14">
-        <v>-0.02336719551687037</v>
+        <v>-0.04046451972310114</v>
       </c>
       <c r="G14">
-        <v>0.004673767707230891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02002995241294379</v>
+      </c>
+      <c r="H14">
+        <v>-0.05330594816407304</v>
+      </c>
+      <c r="I14">
+        <v>-0.009575414157677873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04802987071894189</v>
+        <v>-0.0424566605143327</v>
       </c>
       <c r="C16">
-        <v>-0.02616487764986896</v>
+        <v>-0.03885025898647962</v>
       </c>
       <c r="D16">
-        <v>0.008260601799057169</v>
+        <v>-0.0002965610714826739</v>
       </c>
       <c r="E16">
-        <v>-0.03426451656067592</v>
+        <v>0.008043598958814503</v>
       </c>
       <c r="F16">
-        <v>0.001393892649477673</v>
+        <v>-0.03572508380834731</v>
       </c>
       <c r="G16">
-        <v>0.01198213350957673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.006245304887000112</v>
+      </c>
+      <c r="H16">
+        <v>-0.006710095010014846</v>
+      </c>
+      <c r="I16">
+        <v>0.001673724832087691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05499482101022018</v>
+        <v>-0.04795158696935858</v>
       </c>
       <c r="C19">
-        <v>-0.04689270990975311</v>
+        <v>-0.0446219794389116</v>
       </c>
       <c r="D19">
-        <v>0.001648877122198878</v>
+        <v>-0.001405390616783077</v>
       </c>
       <c r="E19">
-        <v>-0.08354320585687135</v>
+        <v>0.02272489181029992</v>
       </c>
       <c r="F19">
-        <v>-0.01131982389140793</v>
+        <v>-0.08477244872668534</v>
       </c>
       <c r="G19">
-        <v>0.0286232093813643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.002565709453526049</v>
+      </c>
+      <c r="H19">
+        <v>-0.07412275215167564</v>
+      </c>
+      <c r="I19">
+        <v>-0.04353678905858086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03706561914121095</v>
+        <v>-0.01729330061336782</v>
       </c>
       <c r="C20">
-        <v>-0.04205582033484895</v>
+        <v>-0.03005967426096654</v>
       </c>
       <c r="D20">
-        <v>-0.01330559858539</v>
+        <v>0.006553578576728774</v>
       </c>
       <c r="E20">
-        <v>-0.06832437377587247</v>
+        <v>0.02159275580153084</v>
       </c>
       <c r="F20">
-        <v>0.00253300231919727</v>
+        <v>-0.06862710364142821</v>
       </c>
       <c r="G20">
-        <v>0.01686495979307355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01003004435894743</v>
+      </c>
+      <c r="H20">
+        <v>-0.06712035955723113</v>
+      </c>
+      <c r="I20">
+        <v>-0.04253039055858564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03417247206012296</v>
+        <v>-0.02920798907396826</v>
       </c>
       <c r="C21">
-        <v>-0.0334790737968761</v>
+        <v>-0.03032587609122995</v>
       </c>
       <c r="D21">
-        <v>-0.00281726402864142</v>
+        <v>0.01294432306039947</v>
       </c>
       <c r="E21">
-        <v>-0.1130567951675137</v>
+        <v>0.008646315197200842</v>
       </c>
       <c r="F21">
-        <v>-0.007444396810454079</v>
+        <v>-0.08228743428808315</v>
       </c>
       <c r="G21">
-        <v>-0.04654503333662909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03952364358827642</v>
+      </c>
+      <c r="H21">
+        <v>-0.02123667436916967</v>
+      </c>
+      <c r="I21">
+        <v>0.01175700314531082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05122086128546614</v>
+        <v>-0.04186316322735201</v>
       </c>
       <c r="C24">
-        <v>-0.02408465732572182</v>
+        <v>-0.03024772100267513</v>
       </c>
       <c r="D24">
-        <v>0.003978937124467116</v>
+        <v>0.0002473558697561525</v>
       </c>
       <c r="E24">
-        <v>-0.04481355527468804</v>
+        <v>0.0107732236169075</v>
       </c>
       <c r="F24">
-        <v>0.00925872403381023</v>
+        <v>-0.03791598318799234</v>
       </c>
       <c r="G24">
-        <v>0.008010925279504619</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.002621262463397775</v>
+      </c>
+      <c r="H24">
+        <v>-0.0006091074372101733</v>
+      </c>
+      <c r="I24">
+        <v>0.0009324926031811145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05139463208402297</v>
+        <v>-0.04690376228713111</v>
       </c>
       <c r="C25">
-        <v>-0.01523373307821781</v>
+        <v>-0.02722187400325756</v>
       </c>
       <c r="D25">
-        <v>0.003100343867195634</v>
+        <v>-0.00108264164759597</v>
       </c>
       <c r="E25">
-        <v>-0.04309114842193959</v>
+        <v>0.009683938737826038</v>
       </c>
       <c r="F25">
-        <v>-0.002267314094995297</v>
+        <v>-0.04328063014384465</v>
       </c>
       <c r="G25">
-        <v>0.001274098004797531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002250317606857336</v>
+      </c>
+      <c r="H25">
+        <v>0.004345525532140734</v>
+      </c>
+      <c r="I25">
+        <v>0.005375334515784823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02319049215415097</v>
+        <v>-0.01685863890071003</v>
       </c>
       <c r="C26">
-        <v>-0.03118227121131722</v>
+        <v>-0.02594342015171311</v>
       </c>
       <c r="D26">
-        <v>-0.005471513603770756</v>
+        <v>-0.004025808129973942</v>
       </c>
       <c r="E26">
-        <v>-0.0370474556873031</v>
+        <v>0.00253163995259016</v>
       </c>
       <c r="F26">
-        <v>-0.02855433438441591</v>
+        <v>-0.04637997218597235</v>
       </c>
       <c r="G26">
-        <v>-0.004930162811851635</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01996930929448486</v>
+      </c>
+      <c r="H26">
+        <v>-0.03404601337505376</v>
+      </c>
+      <c r="I26">
+        <v>-0.001294195968776083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1192961831825649</v>
+        <v>-0.07253559819170272</v>
       </c>
       <c r="C27">
-        <v>-0.03306192352979923</v>
+        <v>-0.03079874613545198</v>
       </c>
       <c r="D27">
-        <v>-0.01468208211493393</v>
+        <v>0.005267528924699613</v>
       </c>
       <c r="E27">
-        <v>-0.08976827374243092</v>
+        <v>0.03415264147602709</v>
       </c>
       <c r="F27">
-        <v>0.01845460158534257</v>
+        <v>-0.06741255252457494</v>
       </c>
       <c r="G27">
-        <v>-0.01100442355636889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01915493423686278</v>
+      </c>
+      <c r="H27">
+        <v>-0.01540320743269056</v>
+      </c>
+      <c r="I27">
+        <v>-0.03214333226944088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0158122548375955</v>
+        <v>-0.0532903470118577</v>
       </c>
       <c r="C28">
-        <v>0.247578043034663</v>
+        <v>0.2387107571166437</v>
       </c>
       <c r="D28">
-        <v>0.03255316565810715</v>
+        <v>-0.005705652137815624</v>
       </c>
       <c r="E28">
-        <v>-0.04844859213348714</v>
+        <v>-0.05645822041285668</v>
       </c>
       <c r="F28">
-        <v>-0.01435412393022645</v>
+        <v>-0.05708607720422484</v>
       </c>
       <c r="G28">
-        <v>-0.04398956693797031</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.03423279820805147</v>
+      </c>
+      <c r="H28">
+        <v>0.001427923065931724</v>
+      </c>
+      <c r="I28">
+        <v>-0.1571957628862728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02552706677300788</v>
+        <v>-0.02293691100503871</v>
       </c>
       <c r="C29">
-        <v>-0.0263878917223669</v>
+        <v>-0.01918778662428258</v>
       </c>
       <c r="D29">
-        <v>-0.03110432613512481</v>
+        <v>0.00919529859858288</v>
       </c>
       <c r="E29">
-        <v>-0.0352610562769237</v>
+        <v>0.02817943258659583</v>
       </c>
       <c r="F29">
-        <v>-0.01507748005895648</v>
+        <v>-0.0364134480473425</v>
       </c>
       <c r="G29">
-        <v>-0.00684923648929807</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02536554010038031</v>
+      </c>
+      <c r="H29">
+        <v>-0.05104426771959311</v>
+      </c>
+      <c r="I29">
+        <v>-0.0009859877623866631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1149389610659351</v>
+        <v>-0.08873429803677485</v>
       </c>
       <c r="C30">
-        <v>-0.02486240985466753</v>
+        <v>-0.05043967217843203</v>
       </c>
       <c r="D30">
-        <v>-0.03054273501160694</v>
+        <v>-0.03717310184986285</v>
       </c>
       <c r="E30">
-        <v>-0.1111485062130133</v>
+        <v>0.03424551718587386</v>
       </c>
       <c r="F30">
-        <v>-0.006142072721492251</v>
+        <v>-0.1045020350209765</v>
       </c>
       <c r="G30">
-        <v>0.02111822261370519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01701851299292962</v>
+      </c>
+      <c r="H30">
+        <v>-0.01877144395317592</v>
+      </c>
+      <c r="I30">
+        <v>0.003559946660695131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.07064828749970813</v>
+        <v>-0.06145650523366967</v>
       </c>
       <c r="C31">
-        <v>-0.01260270007145107</v>
+        <v>-0.02360653775854527</v>
       </c>
       <c r="D31">
-        <v>-0.01212256619883539</v>
+        <v>-0.0105195991373926</v>
       </c>
       <c r="E31">
-        <v>0.01998106245626613</v>
+        <v>0.02376647415677252</v>
       </c>
       <c r="F31">
-        <v>-0.05410920099003121</v>
+        <v>-0.0009358760807735362</v>
       </c>
       <c r="G31">
-        <v>0.009095384486034756</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03746145496212496</v>
+      </c>
+      <c r="H31">
+        <v>-0.03999662554696214</v>
+      </c>
+      <c r="I31">
+        <v>-0.016586826364676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06802874096834356</v>
+        <v>-0.04383118111255491</v>
       </c>
       <c r="C32">
-        <v>-0.0372233616691731</v>
+        <v>-0.04901950036605561</v>
       </c>
       <c r="D32">
-        <v>-0.01553478665736683</v>
+        <v>0.01471212823804321</v>
       </c>
       <c r="E32">
-        <v>-0.1045894227730383</v>
+        <v>0.03370089489246924</v>
       </c>
       <c r="F32">
-        <v>-0.006729481597670992</v>
+        <v>-0.08742873987202365</v>
       </c>
       <c r="G32">
-        <v>0.01225531478472199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01718409531414647</v>
+      </c>
+      <c r="H32">
+        <v>-0.03401153356397388</v>
+      </c>
+      <c r="I32">
+        <v>-0.03012707283627994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06921652038593105</v>
+        <v>-0.05577191791400989</v>
       </c>
       <c r="C33">
-        <v>-0.04830030836004197</v>
+        <v>-0.05264566849593853</v>
       </c>
       <c r="D33">
-        <v>-0.01024634554912734</v>
+        <v>-0.01847230485891112</v>
       </c>
       <c r="E33">
-        <v>-0.07767089299459955</v>
+        <v>0.0150766549437586</v>
       </c>
       <c r="F33">
-        <v>-0.02154749952183556</v>
+        <v>-0.07782182524048541</v>
       </c>
       <c r="G33">
-        <v>-0.02979776456808711</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03115173925999489</v>
+      </c>
+      <c r="H33">
+        <v>-0.03770349647201198</v>
+      </c>
+      <c r="I33">
+        <v>-0.00340910056897435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04992034433754295</v>
+        <v>-0.04357389108911781</v>
       </c>
       <c r="C34">
-        <v>-0.0224536208423558</v>
+        <v>-0.0364929921792185</v>
       </c>
       <c r="D34">
-        <v>-0.002206779785051216</v>
+        <v>0.004780697037742452</v>
       </c>
       <c r="E34">
-        <v>-0.02828755171679023</v>
+        <v>0.01857488309461978</v>
       </c>
       <c r="F34">
-        <v>0.002132543520082376</v>
+        <v>-0.03151472210990679</v>
       </c>
       <c r="G34">
-        <v>0.01300085748883285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.002296140549522549</v>
+      </c>
+      <c r="H34">
+        <v>-0.00820547800234735</v>
+      </c>
+      <c r="I34">
+        <v>0.001307590240048922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01618886095463457</v>
+        <v>-0.01555679508852574</v>
       </c>
       <c r="C36">
-        <v>-0.002505742745079221</v>
+        <v>-0.003758327678895695</v>
       </c>
       <c r="D36">
-        <v>-0.009488410744748901</v>
+        <v>0.004694007357557829</v>
       </c>
       <c r="E36">
-        <v>-0.02339897803501667</v>
+        <v>0.01025195779397243</v>
       </c>
       <c r="F36">
-        <v>-0.01798972612649673</v>
+        <v>-0.02648524280775209</v>
       </c>
       <c r="G36">
-        <v>0.001461411021581779</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02208945618850709</v>
+      </c>
+      <c r="H36">
+        <v>-0.03206071268165488</v>
+      </c>
+      <c r="I36">
+        <v>0.004975141208483289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04718892533332712</v>
+        <v>-0.03376818849419848</v>
       </c>
       <c r="C38">
-        <v>-0.02053038481980041</v>
+        <v>-0.01543070767341994</v>
       </c>
       <c r="D38">
-        <v>-0.02215823555269662</v>
+        <v>0.003709916921912223</v>
       </c>
       <c r="E38">
-        <v>-0.02461718245046819</v>
+        <v>0.0133288373710624</v>
       </c>
       <c r="F38">
-        <v>0.02980667293706296</v>
+        <v>-0.04732130473802586</v>
       </c>
       <c r="G38">
-        <v>-0.005780331129999811</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02322992924985942</v>
+      </c>
+      <c r="H38">
+        <v>-0.01808062540792228</v>
+      </c>
+      <c r="I38">
+        <v>0.01222904597441968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07465739434281958</v>
+        <v>-0.05540378952798154</v>
       </c>
       <c r="C39">
-        <v>-0.01996194552650551</v>
+        <v>-0.04401324632086912</v>
       </c>
       <c r="D39">
-        <v>-0.001124178075262675</v>
+        <v>-0.004537161690181892</v>
       </c>
       <c r="E39">
-        <v>-0.04121922031234412</v>
+        <v>0.0177319858492321</v>
       </c>
       <c r="F39">
-        <v>-0.003611990560676132</v>
+        <v>-0.05570541188690772</v>
       </c>
       <c r="G39">
-        <v>-0.01181332137391999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01729950832472257</v>
+      </c>
+      <c r="H39">
+        <v>-0.002600704187827178</v>
+      </c>
+      <c r="I39">
+        <v>0.02129541393463866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07744614753428489</v>
+        <v>-0.05491578884624227</v>
       </c>
       <c r="C40">
-        <v>-0.04650418912720902</v>
+        <v>-0.04279512190668872</v>
       </c>
       <c r="D40">
-        <v>-0.009538821616181461</v>
+        <v>-0.02023663927611305</v>
       </c>
       <c r="E40">
-        <v>-0.1074487667447302</v>
+        <v>0.02494934659912842</v>
       </c>
       <c r="F40">
-        <v>0.01682650631291032</v>
+        <v>-0.09419729796281812</v>
       </c>
       <c r="G40">
-        <v>-0.02857995868790136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02217126480234887</v>
+      </c>
+      <c r="H40">
+        <v>-0.04790100191663528</v>
+      </c>
+      <c r="I40">
+        <v>-0.04778777035062182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.004983795135006215</v>
+        <v>-0.003883577509706305</v>
       </c>
       <c r="C41">
-        <v>-0.02234344061516251</v>
+        <v>-0.01232018067093173</v>
       </c>
       <c r="D41">
-        <v>-0.02800739759720701</v>
+        <v>1.447709411443245e-05</v>
       </c>
       <c r="E41">
-        <v>-0.01209485916730533</v>
+        <v>0.01106325660851986</v>
       </c>
       <c r="F41">
-        <v>-0.02310674452552953</v>
+        <v>-0.01341582148531028</v>
       </c>
       <c r="G41">
-        <v>-0.01931725227978515</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03436246888858775</v>
+      </c>
+      <c r="H41">
+        <v>-0.03379644072736845</v>
+      </c>
+      <c r="I41">
+        <v>-0.02691708123723646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1403174655258578</v>
+        <v>-0.2211008064049104</v>
       </c>
       <c r="C42">
-        <v>-0.2030540440975604</v>
+        <v>-0.2700879228769796</v>
       </c>
       <c r="D42">
-        <v>0.9286555467532971</v>
+        <v>-0.05773919854771475</v>
       </c>
       <c r="E42">
-        <v>0.1013290754349261</v>
+        <v>-0.9051145411129017</v>
       </c>
       <c r="F42">
-        <v>-0.1280470532821861</v>
+        <v>0.1602968369274096</v>
       </c>
       <c r="G42">
-        <v>0.07061805582923783</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.009149900544776497</v>
+      </c>
+      <c r="H42">
+        <v>-0.003216784329875604</v>
+      </c>
+      <c r="I42">
+        <v>-0.05542103711718886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007312635390007447</v>
+        <v>-0.007147171429355443</v>
       </c>
       <c r="C43">
-        <v>-0.02182299197550329</v>
+        <v>-0.0149556009339286</v>
       </c>
       <c r="D43">
-        <v>-0.01577243775521204</v>
+        <v>-0.002476865770226698</v>
       </c>
       <c r="E43">
-        <v>-0.03440763371346267</v>
+        <v>0.01124954389069821</v>
       </c>
       <c r="F43">
-        <v>-0.01866852234395529</v>
+        <v>-0.0285357016585977</v>
       </c>
       <c r="G43">
-        <v>0.00251382380953497</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02014756628942122</v>
+      </c>
+      <c r="H43">
+        <v>-0.03058083335073207</v>
+      </c>
+      <c r="I43">
+        <v>-0.01819851951929486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0409166182107705</v>
+        <v>-0.02922975735450715</v>
       </c>
       <c r="C44">
-        <v>-0.05345420253125534</v>
+        <v>-0.04179510349590737</v>
       </c>
       <c r="D44">
-        <v>-0.01613886578491607</v>
+        <v>0.001760329866521012</v>
       </c>
       <c r="E44">
-        <v>-0.1272727586446718</v>
+        <v>0.01136296514668735</v>
       </c>
       <c r="F44">
-        <v>-0.044619913094345</v>
+        <v>-0.1222313208656705</v>
       </c>
       <c r="G44">
-        <v>-0.06584910610193144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06062436324681358</v>
+      </c>
+      <c r="H44">
+        <v>-0.0963859586181418</v>
+      </c>
+      <c r="I44">
+        <v>-0.03633968931510108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02843196850559363</v>
+        <v>-0.02387422543446702</v>
       </c>
       <c r="C46">
-        <v>-0.02994685757592928</v>
+        <v>-0.0353266202667489</v>
       </c>
       <c r="D46">
-        <v>-0.02971577812058408</v>
+        <v>-0.00223567364290285</v>
       </c>
       <c r="E46">
-        <v>-0.03542568721523008</v>
+        <v>0.03185617585180539</v>
       </c>
       <c r="F46">
-        <v>-0.02611173583919257</v>
+        <v>-0.04936983943684767</v>
       </c>
       <c r="G46">
-        <v>-0.01366631427121636</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01953469190012959</v>
+      </c>
+      <c r="H46">
+        <v>-0.05633501949970916</v>
+      </c>
+      <c r="I46">
+        <v>-0.005956808356246715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09412869724713044</v>
+        <v>-0.08925654522661741</v>
       </c>
       <c r="C47">
-        <v>-0.01146903533836129</v>
+        <v>-0.0192448576437156</v>
       </c>
       <c r="D47">
-        <v>-0.01850613315300667</v>
+        <v>-0.005432371494393834</v>
       </c>
       <c r="E47">
-        <v>0.01956748177949465</v>
+        <v>0.02725364350094758</v>
       </c>
       <c r="F47">
-        <v>-0.0261401760785234</v>
+        <v>0.01034483495881732</v>
       </c>
       <c r="G47">
-        <v>-0.004798170952716528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03861939190483971</v>
+      </c>
+      <c r="H47">
+        <v>-0.05736596826552898</v>
+      </c>
+      <c r="I47">
+        <v>-0.0278440839964294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02084607664880289</v>
+        <v>-0.02005976554402531</v>
       </c>
       <c r="C48">
-        <v>-0.02491899974246331</v>
+        <v>-0.01980492759795308</v>
       </c>
       <c r="D48">
-        <v>-0.01541001902990204</v>
+        <v>0.001530685270316532</v>
       </c>
       <c r="E48">
-        <v>-0.02995126214278402</v>
+        <v>0.0141434088446773</v>
       </c>
       <c r="F48">
-        <v>-0.00664414493650351</v>
+        <v>-0.027674880982428</v>
       </c>
       <c r="G48">
-        <v>-0.001707705369296395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01518175322195415</v>
+      </c>
+      <c r="H48">
+        <v>-0.02151418762219099</v>
+      </c>
+      <c r="I48">
+        <v>-0.01490011555830794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09444674163779519</v>
+        <v>-0.0874039679634922</v>
       </c>
       <c r="C50">
-        <v>-0.0316387637774236</v>
+        <v>-0.03637375252077819</v>
       </c>
       <c r="D50">
-        <v>-0.02201745476673153</v>
+        <v>0.01038975528927919</v>
       </c>
       <c r="E50">
-        <v>0.01583722475451655</v>
+        <v>0.02707710906155071</v>
       </c>
       <c r="F50">
-        <v>-0.04408261086533406</v>
+        <v>0.005400938880531006</v>
       </c>
       <c r="G50">
-        <v>0.0168779218171124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.004933458349806547</v>
+      </c>
+      <c r="H50">
+        <v>-0.04334273086816998</v>
+      </c>
+      <c r="I50">
+        <v>5.250956720016288e-05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05331059106671616</v>
+        <v>-0.03886208305923049</v>
       </c>
       <c r="C51">
-        <v>0.01499975252740965</v>
+        <v>0.004882887386100241</v>
       </c>
       <c r="D51">
-        <v>0.0002633057440718877</v>
+        <v>-0.0121649928297171</v>
       </c>
       <c r="E51">
-        <v>-0.08504674894742416</v>
+        <v>0.008761613285574787</v>
       </c>
       <c r="F51">
-        <v>-0.05746710881508952</v>
+        <v>-0.09747569856946106</v>
       </c>
       <c r="G51">
-        <v>-0.02382127686986351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04799065015932777</v>
+      </c>
+      <c r="H51">
+        <v>-0.05549461438107985</v>
+      </c>
+      <c r="I51">
+        <v>-0.02592450533163861</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1424955184917445</v>
+        <v>-0.1250688918162531</v>
       </c>
       <c r="C53">
-        <v>-0.01633376688902005</v>
+        <v>-0.03811464315133419</v>
       </c>
       <c r="D53">
-        <v>-0.04742769154969059</v>
+        <v>-0.00595854548353868</v>
       </c>
       <c r="E53">
-        <v>0.04567365269990516</v>
+        <v>0.05599111092484751</v>
       </c>
       <c r="F53">
-        <v>-0.03233091826936867</v>
+        <v>0.04304242087846801</v>
       </c>
       <c r="G53">
-        <v>0.008593127439680813</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0217273133086294</v>
+      </c>
+      <c r="H53">
+        <v>0.002773908883326472</v>
+      </c>
+      <c r="I53">
+        <v>-0.04727712276132574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02686937199440338</v>
+        <v>-0.02503737091343852</v>
       </c>
       <c r="C54">
-        <v>-0.009675639080528521</v>
+        <v>-0.003623720546786083</v>
       </c>
       <c r="D54">
-        <v>-0.02863355447153119</v>
+        <v>0.005017707066615192</v>
       </c>
       <c r="E54">
-        <v>-0.03748363871205533</v>
+        <v>0.02625938896177563</v>
       </c>
       <c r="F54">
-        <v>-0.02457857411543838</v>
+        <v>-0.03615911147654547</v>
       </c>
       <c r="G54">
-        <v>-0.03766050749248102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04820281249650218</v>
+      </c>
+      <c r="H54">
+        <v>-0.0461913897567385</v>
+      </c>
+      <c r="I54">
+        <v>-0.02841321639439843</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1045874660056452</v>
+        <v>-0.09741610626135229</v>
       </c>
       <c r="C55">
-        <v>-0.004692213367741074</v>
+        <v>-0.03206885448853442</v>
       </c>
       <c r="D55">
-        <v>-0.03542181999685534</v>
+        <v>0.01205631640150245</v>
       </c>
       <c r="E55">
-        <v>0.01482615968790517</v>
+        <v>0.03684897671002158</v>
       </c>
       <c r="F55">
-        <v>0.02250079793801465</v>
+        <v>0.03013711979282661</v>
       </c>
       <c r="G55">
-        <v>0.03718319022163402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01337702983353174</v>
+      </c>
+      <c r="H55">
+        <v>-0.01173849920774055</v>
+      </c>
+      <c r="I55">
+        <v>-0.02257917792623782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1780173377653149</v>
+        <v>-0.1649148183848939</v>
       </c>
       <c r="C56">
-        <v>0.01572203740875648</v>
+        <v>-0.02048611448941963</v>
       </c>
       <c r="D56">
-        <v>-0.08552647154801976</v>
+        <v>0.0008448263268416536</v>
       </c>
       <c r="E56">
-        <v>0.09889871244829027</v>
+        <v>0.08696270109775424</v>
       </c>
       <c r="F56">
-        <v>0.01618987935824685</v>
+        <v>0.08807000171251916</v>
       </c>
       <c r="G56">
-        <v>0.06993848850706556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02341295714059572</v>
+      </c>
+      <c r="H56">
+        <v>0.04102703158547819</v>
+      </c>
+      <c r="I56">
+        <v>-0.04528637534816338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.0852019193056051</v>
+        <v>-0.06530604719094579</v>
       </c>
       <c r="C57">
-        <v>-0.03141019567391534</v>
+        <v>-0.03349111512148528</v>
       </c>
       <c r="D57">
-        <v>-0.02533945289962045</v>
+        <v>-0.01775890063437181</v>
       </c>
       <c r="E57">
-        <v>-0.0462110466957557</v>
+        <v>0.007885484360999695</v>
       </c>
       <c r="F57">
-        <v>-0.04736136336313821</v>
+        <v>-0.06729745571705019</v>
       </c>
       <c r="G57">
-        <v>-0.01283359581800174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02434672464867422</v>
+      </c>
+      <c r="H57">
+        <v>-0.03494944906783548</v>
+      </c>
+      <c r="I57">
+        <v>-0.001310147275980256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2013943710796685</v>
+        <v>-0.2044466563230687</v>
       </c>
       <c r="C58">
-        <v>-0.02929851120706628</v>
+        <v>-0.09144860661909893</v>
       </c>
       <c r="D58">
-        <v>-0.001883724221618171</v>
+        <v>-0.09176774628031517</v>
       </c>
       <c r="E58">
-        <v>-0.1334477238189099</v>
+        <v>-0.007560679062276681</v>
       </c>
       <c r="F58">
-        <v>-0.0266067644685816</v>
+        <v>-0.2511075564244847</v>
       </c>
       <c r="G58">
-        <v>0.07611498132279582</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1963705767732805</v>
+      </c>
+      <c r="H58">
+        <v>-0.3805557186550372</v>
+      </c>
+      <c r="I58">
+        <v>0.3435702626081439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.01976817393137231</v>
+        <v>-0.05212322531468282</v>
       </c>
       <c r="C59">
-        <v>0.1984288724407483</v>
+        <v>0.1948415502838617</v>
       </c>
       <c r="D59">
-        <v>0.003957962518441036</v>
+        <v>-0.02035613915387129</v>
       </c>
       <c r="E59">
-        <v>-0.05998410398949697</v>
+        <v>-0.01875627311789416</v>
       </c>
       <c r="F59">
-        <v>-0.003844132986929633</v>
+        <v>-0.06888990456642469</v>
       </c>
       <c r="G59">
-        <v>-0.01818709345531042</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01051562679463255</v>
+      </c>
+      <c r="H59">
+        <v>0.02576053512964418</v>
+      </c>
+      <c r="I59">
+        <v>-0.0573046340945614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1857789586325974</v>
+        <v>-0.1893276768324013</v>
       </c>
       <c r="C60">
-        <v>0.09034938838842518</v>
+        <v>0.04452658634964413</v>
       </c>
       <c r="D60">
-        <v>-0.0044208194774269</v>
+        <v>-0.04985427627536001</v>
       </c>
       <c r="E60">
-        <v>-0.1888924514610479</v>
+        <v>0.008220778160494579</v>
       </c>
       <c r="F60">
-        <v>-0.01690815783734384</v>
+        <v>-0.2057718198999486</v>
       </c>
       <c r="G60">
-        <v>-0.04561307062467189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04928124452430559</v>
+      </c>
+      <c r="H60">
+        <v>0.2786643163144413</v>
+      </c>
+      <c r="I60">
+        <v>0.08643406898994994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04335132192157683</v>
+        <v>-0.03786377768194189</v>
       </c>
       <c r="C61">
-        <v>-0.01378867519050308</v>
+        <v>-0.02941782425051155</v>
       </c>
       <c r="D61">
-        <v>0.0007825967328760278</v>
+        <v>0.001035698429070581</v>
       </c>
       <c r="E61">
-        <v>-0.03843289960459639</v>
+        <v>0.008621527659220311</v>
       </c>
       <c r="F61">
-        <v>0.00403974214334182</v>
+        <v>-0.03897546595115669</v>
       </c>
       <c r="G61">
-        <v>-0.00580620936847647</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01002640058553877</v>
+      </c>
+      <c r="H61">
+        <v>0.00821454032898618</v>
+      </c>
+      <c r="I61">
+        <v>0.03458030663349469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04369510242461491</v>
+        <v>-0.03026667823229266</v>
       </c>
       <c r="C63">
-        <v>-0.01681885283514561</v>
+        <v>-0.02222790613089022</v>
       </c>
       <c r="D63">
-        <v>-0.01747144834714421</v>
+        <v>-0.001160354804318936</v>
       </c>
       <c r="E63">
-        <v>-0.04276272051406881</v>
+        <v>0.01528310339561179</v>
       </c>
       <c r="F63">
-        <v>-0.01945995755789287</v>
+        <v>-0.02890688046510169</v>
       </c>
       <c r="G63">
-        <v>0.002637290216599431</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.00489273881396398</v>
+      </c>
+      <c r="H63">
+        <v>-0.05151776996497454</v>
+      </c>
+      <c r="I63">
+        <v>-0.03895344585531057</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.075046144723475</v>
+        <v>-0.05832966978342549</v>
       </c>
       <c r="C64">
-        <v>-0.05078772380068416</v>
+        <v>-0.04506632327210197</v>
       </c>
       <c r="D64">
-        <v>-0.04446868112057924</v>
+        <v>0.01529609182675107</v>
       </c>
       <c r="E64">
-        <v>-0.05152429056400512</v>
+        <v>0.04046243019679353</v>
       </c>
       <c r="F64">
-        <v>0.02713994867603218</v>
+        <v>-0.05051861945905</v>
       </c>
       <c r="G64">
-        <v>-0.06522778908714574</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05681742431475351</v>
+      </c>
+      <c r="H64">
+        <v>0.005505327052556509</v>
+      </c>
+      <c r="I64">
+        <v>-0.04328204025227887</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02101638594125965</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01178251776031979</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.006382683680105285</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.0062173811807073</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001024749059286699</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0205333144971595</v>
+      </c>
+      <c r="H65">
+        <v>0.006403459627960668</v>
+      </c>
+      <c r="I65">
+        <v>0.01473800684191995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.08499551061273504</v>
+        <v>-0.06686288752749295</v>
       </c>
       <c r="C66">
-        <v>-0.04098296686434563</v>
+        <v>-0.05708977809357598</v>
       </c>
       <c r="D66">
-        <v>-0.03390659345107733</v>
+        <v>-0.01232244146090945</v>
       </c>
       <c r="E66">
-        <v>-0.0808288280751937</v>
+        <v>0.04805648414516705</v>
       </c>
       <c r="F66">
-        <v>-0.007603665591634111</v>
+        <v>-0.06928513563390404</v>
       </c>
       <c r="G66">
-        <v>-0.02208705744838602</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.009624737219130527</v>
+      </c>
+      <c r="H66">
+        <v>0.001228572480900202</v>
+      </c>
+      <c r="I66">
+        <v>0.01959892607321545</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05659980095816138</v>
+        <v>-0.04636109834094947</v>
       </c>
       <c r="C67">
-        <v>0.008607518483230993</v>
+        <v>0.00349402650958513</v>
       </c>
       <c r="D67">
-        <v>-0.01296221418492076</v>
+        <v>-0.00181490956229655</v>
       </c>
       <c r="E67">
-        <v>-0.01825485576747109</v>
+        <v>0.009708933115744185</v>
       </c>
       <c r="F67">
-        <v>0.02259429512973416</v>
+        <v>-0.03586460323266123</v>
       </c>
       <c r="G67">
-        <v>-0.009801110864522173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03306764437056554</v>
+      </c>
+      <c r="H67">
+        <v>0.0005234625011461036</v>
+      </c>
+      <c r="I67">
+        <v>0.03382077610806072</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.02989758739668103</v>
+        <v>-0.06152037156434475</v>
       </c>
       <c r="C68">
-        <v>0.244569702963024</v>
+        <v>0.232920809588541</v>
       </c>
       <c r="D68">
-        <v>0.01598729687912767</v>
+        <v>-0.02070197058597155</v>
       </c>
       <c r="E68">
-        <v>-0.05476251578969013</v>
+        <v>-0.03395756747848491</v>
       </c>
       <c r="F68">
-        <v>-0.0304919446598752</v>
+        <v>-0.05743421669772789</v>
       </c>
       <c r="G68">
-        <v>-0.007265767297369803</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.004088096572433514</v>
+      </c>
+      <c r="H68">
+        <v>0.02256110949885654</v>
+      </c>
+      <c r="I68">
+        <v>-0.1383426821525675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07262246882421167</v>
+        <v>-0.07172302198932186</v>
       </c>
       <c r="C69">
-        <v>-0.01452971436104106</v>
+        <v>-0.02013435936414827</v>
       </c>
       <c r="D69">
-        <v>-0.02344698520977493</v>
+        <v>-0.006051395169723119</v>
       </c>
       <c r="E69">
-        <v>0.01569584124487126</v>
+        <v>0.03241699522115402</v>
       </c>
       <c r="F69">
-        <v>-0.02731075521902469</v>
+        <v>0.001382896873131591</v>
       </c>
       <c r="G69">
-        <v>0.003834382459452718</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02414454257681151</v>
+      </c>
+      <c r="H69">
+        <v>-0.03266558499192951</v>
+      </c>
+      <c r="I69">
+        <v>-0.003289178660278973</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.02143791994561801</v>
+        <v>-0.05790090561655926</v>
       </c>
       <c r="C71">
-        <v>0.2827246887575511</v>
+        <v>0.2491274094774267</v>
       </c>
       <c r="D71">
-        <v>0.03065527968795907</v>
+        <v>-0.02521990569149169</v>
       </c>
       <c r="E71">
-        <v>-0.08400452802395506</v>
+        <v>-0.06122237813281185</v>
       </c>
       <c r="F71">
-        <v>-0.03321344046010642</v>
+        <v>-0.0751140041667797</v>
       </c>
       <c r="G71">
-        <v>-0.01739462818987568</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01732245460504234</v>
+      </c>
+      <c r="H71">
+        <v>0.02218596825010164</v>
+      </c>
+      <c r="I71">
+        <v>-0.1192353286131683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1270636357981128</v>
+        <v>-0.1237470555479429</v>
       </c>
       <c r="C72">
-        <v>0.01419909563137897</v>
+        <v>-0.02882414820441013</v>
       </c>
       <c r="D72">
-        <v>-0.04063210836198927</v>
+        <v>-0.007069800167090135</v>
       </c>
       <c r="E72">
-        <v>-0.08071128356603173</v>
+        <v>0.06464052533456795</v>
       </c>
       <c r="F72">
-        <v>0.0136533588685886</v>
+        <v>-0.08589145992796879</v>
       </c>
       <c r="G72">
-        <v>0.01151127207365973</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03225300275739695</v>
+      </c>
+      <c r="H72">
+        <v>0.01136775414410966</v>
+      </c>
+      <c r="I72">
+        <v>0.1012047525383073</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2859258495194292</v>
+        <v>-0.2724973651633701</v>
       </c>
       <c r="C73">
-        <v>0.1800230713604986</v>
+        <v>0.06917194147556066</v>
       </c>
       <c r="D73">
-        <v>0.05886234902096624</v>
+        <v>-0.09088378574893492</v>
       </c>
       <c r="E73">
-        <v>-0.3289702368276753</v>
+        <v>-0.03932298440221491</v>
       </c>
       <c r="F73">
-        <v>0.0362633343970932</v>
+        <v>-0.3068415627511831</v>
       </c>
       <c r="G73">
-        <v>-0.06064123396651334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1333414997207303</v>
+      </c>
+      <c r="H73">
+        <v>0.4862477215280035</v>
+      </c>
+      <c r="I73">
+        <v>0.277009629630716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1596130624941862</v>
+        <v>-0.1487512105597646</v>
       </c>
       <c r="C74">
-        <v>-0.01080108695400536</v>
+        <v>-0.03288835181229138</v>
       </c>
       <c r="D74">
-        <v>-0.04081956734865193</v>
+        <v>-0.01153517222788191</v>
       </c>
       <c r="E74">
-        <v>0.0376798134402381</v>
+        <v>0.05224329662213891</v>
       </c>
       <c r="F74">
-        <v>-0.0257465323796611</v>
+        <v>0.05997737974969594</v>
       </c>
       <c r="G74">
-        <v>0.07800688584248312</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.02323591686225791</v>
+      </c>
+      <c r="H74">
+        <v>0.02784130149038395</v>
+      </c>
+      <c r="I74">
+        <v>-0.03661957493825532</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2399255203648339</v>
+        <v>-0.2426951905598733</v>
       </c>
       <c r="C75">
-        <v>-0.00569641444110441</v>
+        <v>-0.02928305470972596</v>
       </c>
       <c r="D75">
-        <v>-0.07917768902887704</v>
+        <v>-0.02730779698402338</v>
       </c>
       <c r="E75">
-        <v>0.1328657635701386</v>
+        <v>0.1128306663581699</v>
       </c>
       <c r="F75">
-        <v>-0.0425468211997322</v>
+        <v>0.1454153703254383</v>
       </c>
       <c r="G75">
-        <v>0.02945744236198903</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.0102868643492669</v>
+      </c>
+      <c r="H75">
+        <v>0.01797069047845694</v>
+      </c>
+      <c r="I75">
+        <v>-0.08789569888078194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2497462771149107</v>
+        <v>-0.262884725672909</v>
       </c>
       <c r="C76">
-        <v>0.01595445706749569</v>
+        <v>-0.01612752816171189</v>
       </c>
       <c r="D76">
-        <v>-0.1090534576292493</v>
+        <v>0.01236091935852097</v>
       </c>
       <c r="E76">
-        <v>0.129866339542416</v>
+        <v>0.1380017795299169</v>
       </c>
       <c r="F76">
-        <v>-0.01198610599038645</v>
+        <v>0.18428751640353</v>
       </c>
       <c r="G76">
-        <v>0.08039511292736616</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05670982896711804</v>
+      </c>
+      <c r="H76">
+        <v>0.04219157423976645</v>
+      </c>
+      <c r="I76">
+        <v>-0.05789765257339532</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1367833314469468</v>
+        <v>-0.1220349139753267</v>
       </c>
       <c r="C77">
-        <v>-0.06598982563667483</v>
+        <v>-0.07628277566473744</v>
       </c>
       <c r="D77">
-        <v>0.0317540616822403</v>
+        <v>-0.006467762313340693</v>
       </c>
       <c r="E77">
-        <v>-0.1503097695985379</v>
+        <v>-0.029399361235062</v>
       </c>
       <c r="F77">
-        <v>0.03407202881554335</v>
+        <v>-0.1569584489809917</v>
       </c>
       <c r="G77">
-        <v>-0.03736217741647478</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02215531310959649</v>
+      </c>
+      <c r="H77">
+        <v>-0.2064377423395558</v>
+      </c>
+      <c r="I77">
+        <v>-0.273585182177189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08716468520623546</v>
+        <v>-0.0734211687266422</v>
       </c>
       <c r="C78">
-        <v>-0.05443453858905559</v>
+        <v>-0.07722559030225004</v>
       </c>
       <c r="D78">
-        <v>0.01135370696429376</v>
+        <v>0.006415782078225246</v>
       </c>
       <c r="E78">
-        <v>-0.05395815340733298</v>
+        <v>0.01399830177990241</v>
       </c>
       <c r="F78">
-        <v>-0.008112356320536826</v>
+        <v>-0.0763862766780813</v>
       </c>
       <c r="G78">
-        <v>0.00195925477091231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.004151957309181329</v>
+      </c>
+      <c r="H78">
+        <v>-0.02475274176186436</v>
+      </c>
+      <c r="I78">
+        <v>-0.03257963157394384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05757747289026692</v>
+        <v>-0.1396398503313474</v>
       </c>
       <c r="C80">
-        <v>-0.01279837702195823</v>
+        <v>0.0491141586065626</v>
       </c>
       <c r="D80">
-        <v>0.1052764506500498</v>
+        <v>0.9732559391831764</v>
       </c>
       <c r="E80">
-        <v>0.07827184111159698</v>
+        <v>-0.06251809961075268</v>
       </c>
       <c r="F80">
-        <v>0.951747947802963</v>
+        <v>-0.04677217838615413</v>
       </c>
       <c r="G80">
-        <v>-0.1256944298584578</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04662330274647172</v>
+      </c>
+      <c r="H80">
+        <v>0.04555746234033141</v>
+      </c>
+      <c r="I80">
+        <v>0.05374089505792603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1668017158083688</v>
+        <v>-0.1778763844498302</v>
       </c>
       <c r="C81">
-        <v>0.01124370284307423</v>
+        <v>-0.00698217621442242</v>
       </c>
       <c r="D81">
-        <v>-0.05442096773347639</v>
+        <v>-0.005980381329056245</v>
       </c>
       <c r="E81">
-        <v>0.1696295854107868</v>
+        <v>0.0849378133343108</v>
       </c>
       <c r="F81">
-        <v>-0.0214668680818405</v>
+        <v>0.1586066561771581</v>
       </c>
       <c r="G81">
-        <v>0.08289925141789217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02801420625564966</v>
+      </c>
+      <c r="H81">
+        <v>0.004384585230290988</v>
+      </c>
+      <c r="I81">
+        <v>-0.05196422428682671</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09125293404242382</v>
+        <v>-0.06879211699641301</v>
       </c>
       <c r="C83">
-        <v>-0.07393218546841664</v>
+        <v>-0.05721509428685602</v>
       </c>
       <c r="D83">
-        <v>0.06008175657028167</v>
+        <v>-0.01338035928183764</v>
       </c>
       <c r="E83">
-        <v>-0.02069313636559968</v>
+        <v>-0.03512905055348078</v>
       </c>
       <c r="F83">
-        <v>-0.04074033632120235</v>
+        <v>-0.04681818810523005</v>
       </c>
       <c r="G83">
-        <v>-0.0426345265736528</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05263490127606901</v>
+      </c>
+      <c r="H83">
+        <v>-0.03779054324236941</v>
+      </c>
+      <c r="I83">
+        <v>-0.03567749825139814</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2400953039942477</v>
+        <v>-0.2525076642931339</v>
       </c>
       <c r="C85">
-        <v>-0.05412998281187572</v>
+        <v>-0.05727966946064893</v>
       </c>
       <c r="D85">
-        <v>-0.06544109856354791</v>
+        <v>-0.006887391505315543</v>
       </c>
       <c r="E85">
-        <v>0.1639692666106575</v>
+        <v>0.1087824247549308</v>
       </c>
       <c r="F85">
-        <v>0.00295698941420204</v>
+        <v>0.1882594265689772</v>
       </c>
       <c r="G85">
-        <v>0.0762514075386069</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.01837178856051418</v>
+      </c>
+      <c r="H85">
+        <v>-0.02057163856623681</v>
+      </c>
+      <c r="I85">
+        <v>-0.06532949674952265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04059468828220219</v>
+        <v>-0.0238884500559703</v>
       </c>
       <c r="C86">
-        <v>-0.04688546106995543</v>
+        <v>-0.05215126353400711</v>
       </c>
       <c r="D86">
-        <v>-0.004263724536116286</v>
+        <v>-0.0007241748752288643</v>
       </c>
       <c r="E86">
-        <v>-0.06889144427085449</v>
+        <v>0.0179080659838727</v>
       </c>
       <c r="F86">
-        <v>0.0037962813808608</v>
+        <v>-0.07891421759188534</v>
       </c>
       <c r="G86">
-        <v>0.006747241591798286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.005635392276725268</v>
+      </c>
+      <c r="H86">
+        <v>-0.0635232636051789</v>
+      </c>
+      <c r="I86">
+        <v>-0.01921452895123877</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02825609238934246</v>
+        <v>-0.03297270627151688</v>
       </c>
       <c r="C87">
-        <v>0.05488333848891152</v>
+        <v>0.009412417444041338</v>
       </c>
       <c r="D87">
-        <v>-5.345376843466833e-05</v>
+        <v>-0.001686146523075213</v>
       </c>
       <c r="E87">
-        <v>-0.09385053003133534</v>
+        <v>0.003005050768396095</v>
       </c>
       <c r="F87">
-        <v>0.003386195262997863</v>
+        <v>-0.1014504235769316</v>
       </c>
       <c r="G87">
-        <v>0.0197181811097676</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02213517908716209</v>
+      </c>
+      <c r="H87">
+        <v>-0.005854398388711943</v>
+      </c>
+      <c r="I87">
+        <v>0.00699785949019874</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03169827067763352</v>
+        <v>-0.03116149940707601</v>
       </c>
       <c r="C88">
-        <v>-0.02507054852063154</v>
+        <v>-0.01204807894154997</v>
       </c>
       <c r="D88">
-        <v>0.0006709540571947492</v>
+        <v>0.008614465031883938</v>
       </c>
       <c r="E88">
-        <v>0.0101619282314121</v>
+        <v>0.007972690315021978</v>
       </c>
       <c r="F88">
-        <v>0.001552547423424887</v>
+        <v>0.01034068714879062</v>
       </c>
       <c r="G88">
-        <v>-0.01154340086728964</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04786533841982422</v>
+      </c>
+      <c r="H88">
+        <v>-0.03079237695280264</v>
+      </c>
+      <c r="I88">
+        <v>0.01647784636945888</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.02823544603462291</v>
+        <v>-0.09512364820625789</v>
       </c>
       <c r="C89">
-        <v>0.3809453223720157</v>
+        <v>0.3830529460555551</v>
       </c>
       <c r="D89">
-        <v>0.08608220261331719</v>
+        <v>-0.05207684053326547</v>
       </c>
       <c r="E89">
-        <v>-0.001264153512719947</v>
+        <v>-0.08041598784091562</v>
       </c>
       <c r="F89">
-        <v>-0.0396247362850599</v>
+        <v>-0.03202736185512012</v>
       </c>
       <c r="G89">
-        <v>-0.03029312808668642</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04221646596217343</v>
+      </c>
+      <c r="H89">
+        <v>-0.05093337737900548</v>
+      </c>
+      <c r="I89">
+        <v>-0.2365487061746807</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.01848598959862493</v>
+        <v>-0.062918133199766</v>
       </c>
       <c r="C90">
-        <v>0.2935225445639442</v>
+        <v>0.3186903989972491</v>
       </c>
       <c r="D90">
-        <v>0.05233230493820024</v>
+        <v>-0.02378169314475198</v>
       </c>
       <c r="E90">
-        <v>-0.05565663128851248</v>
+        <v>-0.06602757991498509</v>
       </c>
       <c r="F90">
-        <v>-0.03484001103009757</v>
+        <v>-0.03284835775875706</v>
       </c>
       <c r="G90">
-        <v>-0.02794447632459239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01765537887109026</v>
+      </c>
+      <c r="H90">
+        <v>-0.006974655425138235</v>
+      </c>
+      <c r="I90">
+        <v>-0.1986595708548571</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2801666052343584</v>
+        <v>-0.2885321713284451</v>
       </c>
       <c r="C91">
-        <v>-0.04894503161159038</v>
+        <v>-0.05542657343822972</v>
       </c>
       <c r="D91">
-        <v>-0.08282110453532829</v>
+        <v>-0.01347947718178358</v>
       </c>
       <c r="E91">
-        <v>0.2688877848774269</v>
+        <v>0.1021586894234333</v>
       </c>
       <c r="F91">
-        <v>0.01706354367642274</v>
+        <v>0.2743977762267036</v>
       </c>
       <c r="G91">
-        <v>0.06662392992850068</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03357059002538542</v>
+      </c>
+      <c r="H91">
+        <v>0.01479680153277144</v>
+      </c>
+      <c r="I91">
+        <v>-0.09789935564430668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.0609961982910058</v>
+        <v>-0.1270108529720911</v>
       </c>
       <c r="C92">
-        <v>0.4105979795234606</v>
+        <v>0.4166562175339402</v>
       </c>
       <c r="D92">
-        <v>0.1620781943891886</v>
+        <v>-0.009197839082326294</v>
       </c>
       <c r="E92">
-        <v>0.1022005640620396</v>
+        <v>-0.1076784766225829</v>
       </c>
       <c r="F92">
-        <v>0.07707095238626777</v>
+        <v>0.1124396153131089</v>
       </c>
       <c r="G92">
-        <v>0.01371652213314115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.07167386947078797</v>
+      </c>
+      <c r="H92">
+        <v>-0.4468268157188722</v>
+      </c>
+      <c r="I92">
+        <v>0.5626488998609321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.01069792794646506</v>
+        <v>-0.07586781280011094</v>
       </c>
       <c r="C93">
-        <v>0.3656671288642231</v>
+        <v>0.3887706536484379</v>
       </c>
       <c r="D93">
-        <v>0.07752466065185201</v>
+        <v>-0.04435826964322921</v>
       </c>
       <c r="E93">
-        <v>0.02270956825307771</v>
+        <v>-0.1055329189913052</v>
       </c>
       <c r="F93">
-        <v>0.01302537323465659</v>
+        <v>-0.003825634265872891</v>
       </c>
       <c r="G93">
-        <v>-0.02886934598014051</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04148674430279427</v>
+      </c>
+      <c r="H93">
+        <v>0.02060555571443767</v>
+      </c>
+      <c r="I93">
+        <v>-0.1338856233497083</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2813402060969558</v>
+        <v>-0.310517593019109</v>
       </c>
       <c r="C94">
-        <v>0.1016713052737554</v>
+        <v>0.03832656369773491</v>
       </c>
       <c r="D94">
-        <v>-0.05465858262768348</v>
+        <v>-0.04276347128329203</v>
       </c>
       <c r="E94">
-        <v>0.370145219521854</v>
+        <v>0.1328723612571358</v>
       </c>
       <c r="F94">
-        <v>0.005245372093906357</v>
+        <v>0.3336820320897566</v>
       </c>
       <c r="G94">
-        <v>0.370393171635738</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2075729560438245</v>
+      </c>
+      <c r="H94">
+        <v>-0.1034818530108428</v>
+      </c>
+      <c r="I94">
+        <v>0.01858089541188639</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1777864118995062</v>
+        <v>-0.1350035776933451</v>
       </c>
       <c r="C95">
-        <v>-0.03142850678337698</v>
+        <v>-0.06248308928068105</v>
       </c>
       <c r="D95">
-        <v>-0.01222690184799378</v>
+        <v>-0.09212564556058091</v>
       </c>
       <c r="E95">
-        <v>0.3303955187964846</v>
+        <v>0.03693883454067411</v>
       </c>
       <c r="F95">
-        <v>-0.144610174684359</v>
+        <v>0.0802392422335665</v>
       </c>
       <c r="G95">
-        <v>-0.8631895479297305</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.90626384477108</v>
+      </c>
+      <c r="H95">
+        <v>0.09878139332376965</v>
+      </c>
+      <c r="I95">
+        <v>0.1508486993663427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2163089250198069</v>
+        <v>-0.2120061155824735</v>
       </c>
       <c r="C98">
-        <v>0.1082451707450924</v>
+        <v>0.05695061218359177</v>
       </c>
       <c r="D98">
-        <v>0.03409959901884892</v>
+        <v>-0.06430749538197872</v>
       </c>
       <c r="E98">
-        <v>-0.09327238899294438</v>
+        <v>-0.0318430110006024</v>
       </c>
       <c r="F98">
-        <v>-0.03795695295289565</v>
+        <v>-0.162237059813691</v>
       </c>
       <c r="G98">
-        <v>-0.04447310234811748</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.05445707115520607</v>
+      </c>
+      <c r="H98">
+        <v>0.3268399681341068</v>
+      </c>
+      <c r="I98">
+        <v>0.1603504130646063</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02545885619723387</v>
+        <v>-0.01693473098209993</v>
       </c>
       <c r="C101">
-        <v>-0.02609504353856776</v>
+        <v>-0.02875975557868887</v>
       </c>
       <c r="D101">
-        <v>-0.03242811051392241</v>
+        <v>0.005003985535491264</v>
       </c>
       <c r="E101">
-        <v>-0.03609912019959813</v>
+        <v>0.03546106355432745</v>
       </c>
       <c r="F101">
-        <v>-0.0147222852157931</v>
+        <v>-0.0670362266648655</v>
       </c>
       <c r="G101">
-        <v>-0.00682806619898435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.006637210653066273</v>
+      </c>
+      <c r="H101">
+        <v>-0.1120752779767469</v>
+      </c>
+      <c r="I101">
+        <v>0.07912157978265462</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1101747404807739</v>
+        <v>-0.118291638256541</v>
       </c>
       <c r="C102">
-        <v>-0.0290412738193911</v>
+        <v>-0.02774464910011897</v>
       </c>
       <c r="D102">
-        <v>-0.03707781181245754</v>
+        <v>0.005005535205898436</v>
       </c>
       <c r="E102">
-        <v>0.0948770896189364</v>
+        <v>0.05383539274679611</v>
       </c>
       <c r="F102">
-        <v>0.02143496953536085</v>
+        <v>0.1071369256236612</v>
       </c>
       <c r="G102">
-        <v>0.01744520841131098</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.001360683482129824</v>
+      </c>
+      <c r="H102">
+        <v>-0.001366512777819095</v>
+      </c>
+      <c r="I102">
+        <v>-0.06629015906523676</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02078540534865417</v>
+        <v>-0.02958621209510621</v>
       </c>
       <c r="C103">
-        <v>-0.00519256157806148</v>
+        <v>-0.007064118816593442</v>
       </c>
       <c r="D103">
-        <v>-0.009582015612793487</v>
+        <v>0.008799251740541414</v>
       </c>
       <c r="E103">
-        <v>0.03251542094198786</v>
+        <v>0.02033358359281881</v>
       </c>
       <c r="F103">
-        <v>-0.006517117468904245</v>
+        <v>0.02630442058173786</v>
       </c>
       <c r="G103">
-        <v>0.009258568791618954</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.009620472604671984</v>
+      </c>
+      <c r="H103">
+        <v>-0.01461584029895199</v>
+      </c>
+      <c r="I103">
+        <v>-0.02320302664763895</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
